--- a/day-wise-outline/DE_TOC.xlsx
+++ b/day-wise-outline/DE_TOC.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\om\Desktop\DE\day-wise-outline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1B8A41-3D44-4BF1-941B-F469F0AF796A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E923351F-5D1F-4AFD-9E0D-83609B379798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{241F0E4A-0382-46AF-B76B-076018E83B76}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{241F0E4A-0382-46AF-B76B-076018E83B76}"/>
   </bookViews>
   <sheets>
     <sheet name="DE" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1290,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20584E7-9ABD-41AB-927E-67EFD8E3D32C}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1759,7 +1758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08FA5E7-593E-4F89-A06C-A5B5B08CCFFB}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1987,11 +1986,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6fd0a1d7-bc79-4732-9936-0d9be1988436" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2248,27 +2248,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6fd0a1d7-bc79-4732-9936-0d9be1988436" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5CFB626-26E2-4438-9DDF-3992CF193FD4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CA16633-6C0E-49A9-A750-E0340EE70140}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="6326863f-2981-4ac8-af87-f0d062708b74"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6fd0a1d7-bc79-4732-9936-0d9be1988436"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2293,9 +2283,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CA16633-6C0E-49A9-A750-E0340EE70140}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5CFB626-26E2-4438-9DDF-3992CF193FD4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="6326863f-2981-4ac8-af87-f0d062708b74"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6fd0a1d7-bc79-4732-9936-0d9be1988436"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/day-wise-outline/DE_TOC.xlsx
+++ b/day-wise-outline/DE_TOC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\om\Desktop\DE\day-wise-outline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E923351F-5D1F-4AFD-9E0D-83609B379798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18C2E6C-E4A2-4E00-84DC-441AFABED9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{241F0E4A-0382-46AF-B76B-076018E83B76}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="148">
   <si>
     <t>Learning Outcome</t>
   </si>
@@ -878,6 +878,27 @@
   </si>
   <si>
     <t>GitHub CI deploys to ADF, Databricks, test environments</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Week-1</t>
+  </si>
+  <si>
+    <t>Week-2</t>
+  </si>
+  <si>
+    <t>Week-3</t>
+  </si>
+  <si>
+    <t>Week-4</t>
+  </si>
+  <si>
+    <t>Week-5</t>
+  </si>
+  <si>
+    <t>Week-6</t>
   </si>
 </sst>
 </file>
@@ -931,7 +952,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -954,11 +975,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -973,6 +1031,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1287,469 +1354,524 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20584E7-9ABD-41AB-927E-67EFD8E3D32C}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="95.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" customWidth="1"/>
+    <col min="3" max="3" width="37.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="95.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="7"/>
+      <c r="C21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="7"/>
+      <c r="C24" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="7"/>
+      <c r="C25" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="7"/>
+      <c r="C26" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="8"/>
+      <c r="C27" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="7"/>
+      <c r="C29" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="7"/>
+      <c r="C30" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="7"/>
+      <c r="C31" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="8"/>
+      <c r="C32" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B28:B32"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1986,12 +2108,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6fd0a1d7-bc79-4732-9936-0d9be1988436" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2248,17 +2369,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6fd0a1d7-bc79-4732-9936-0d9be1988436" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CA16633-6C0E-49A9-A750-E0340EE70140}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5CFB626-26E2-4438-9DDF-3992CF193FD4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="6326863f-2981-4ac8-af87-f0d062708b74"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6fd0a1d7-bc79-4732-9936-0d9be1988436"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2283,18 +2414,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5CFB626-26E2-4438-9DDF-3992CF193FD4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CA16633-6C0E-49A9-A750-E0340EE70140}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="6326863f-2981-4ac8-af87-f0d062708b74"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6fd0a1d7-bc79-4732-9936-0d9be1988436"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/day-wise-outline/DE_TOC.xlsx
+++ b/day-wise-outline/DE_TOC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\om\Desktop\DE\day-wise-outline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18C2E6C-E4A2-4E00-84DC-441AFABED9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138B0969-3F1D-406D-8FCA-EE8D45EA2595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{241F0E4A-0382-46AF-B76B-076018E83B76}"/>
   </bookViews>
@@ -1356,8 +1356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20584E7-9ABD-41AB-927E-67EFD8E3D32C}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="D12" sqref="D8:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1865,12 +1865,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B28:B32"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="B8:B12"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="B18:B22"/>
     <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B28:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2108,11 +2108,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6fd0a1d7-bc79-4732-9936-0d9be1988436" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2369,27 +2370,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6fd0a1d7-bc79-4732-9936-0d9be1988436" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5CFB626-26E2-4438-9DDF-3992CF193FD4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CA16633-6C0E-49A9-A750-E0340EE70140}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="6326863f-2981-4ac8-af87-f0d062708b74"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6fd0a1d7-bc79-4732-9936-0d9be1988436"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2414,9 +2405,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CA16633-6C0E-49A9-A750-E0340EE70140}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5CFB626-26E2-4438-9DDF-3992CF193FD4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="6326863f-2981-4ac8-af87-f0d062708b74"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6fd0a1d7-bc79-4732-9936-0d9be1988436"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/day-wise-outline/DE_TOC.xlsx
+++ b/day-wise-outline/DE_TOC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\om\Desktop\DE\day-wise-outline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138B0969-3F1D-406D-8FCA-EE8D45EA2595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A10204-EEFC-4A16-A38B-562E315C6EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{241F0E4A-0382-46AF-B76B-076018E83B76}"/>
   </bookViews>
@@ -1356,8 +1356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20584E7-9ABD-41AB-927E-67EFD8E3D32C}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="D12" sqref="D8:D12"/>
+    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/day-wise-outline/DE_TOC.xlsx
+++ b/day-wise-outline/DE_TOC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\om\Desktop\DE\day-wise-outline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A10204-EEFC-4A16-A38B-562E315C6EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4608FA-F90D-41B3-8F87-D9DD9B155F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{241F0E4A-0382-46AF-B76B-076018E83B76}"/>
   </bookViews>
@@ -944,12 +944,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -1016,7 +1022,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1039,6 +1045,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1356,8 +1368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20584E7-9ABD-41AB-927E-67EFD8E3D32C}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:D17"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1393,13 +1405,13 @@
       <c r="B2" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1408,13 +1420,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="7"/>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1423,13 +1435,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1438,13 +1450,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="7"/>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="10" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1453,13 +1465,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="7"/>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1468,13 +1480,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1485,13 +1497,13 @@
       <c r="B8" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="10" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1500,13 +1512,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1515,13 +1527,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="10" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1530,13 +1542,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1545,13 +1557,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1562,13 +1574,13 @@
       <c r="B13" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="10" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1577,13 +1589,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1592,13 +1604,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1607,13 +1619,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1622,13 +1634,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="10" t="s">
         <v>40</v>
       </c>
     </row>

--- a/day-wise-outline/DE_TOC.xlsx
+++ b/day-wise-outline/DE_TOC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\om\Desktop\DE\day-wise-outline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4608FA-F90D-41B3-8F87-D9DD9B155F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59242E7-EB73-402B-A958-9B7DE152A73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{241F0E4A-0382-46AF-B76B-076018E83B76}"/>
   </bookViews>
@@ -1037,6 +1037,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1045,12 +1051,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1368,8 +1368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20584E7-9ABD-41AB-927E-67EFD8E3D32C}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1402,16 +1402,16 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1419,14 +1419,14 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1434,14 +1434,14 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1449,14 +1449,14 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1464,14 +1464,14 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1479,14 +1479,14 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1494,16 +1494,16 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1511,14 +1511,14 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1526,14 +1526,14 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1541,14 +1541,14 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1556,14 +1556,14 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="10" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="7" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1571,16 +1571,16 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="7" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1588,14 +1588,14 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="10" t="s">
+      <c r="B14" s="9"/>
+      <c r="C14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1603,14 +1603,14 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="10" t="s">
+      <c r="B15" s="9"/>
+      <c r="C15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1618,14 +1618,14 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="10" t="s">
+      <c r="B16" s="9"/>
+      <c r="C16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="7" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1633,14 +1633,14 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="10" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1648,16 +1648,16 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1665,14 +1665,14 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="9"/>
+      <c r="C19" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1680,14 +1680,14 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="9"/>
+      <c r="C20" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="7" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1695,14 +1695,14 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="9"/>
+      <c r="C21" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="7" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1710,14 +1710,14 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="10"/>
+      <c r="C22" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="7" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="8" t="s">
         <v>146</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -1742,7 +1742,7 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="7"/>
+      <c r="B24" s="9"/>
       <c r="C24" s="2" t="s">
         <v>58</v>
       </c>
@@ -1757,7 +1757,7 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="7"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="2" t="s">
         <v>61</v>
       </c>
@@ -1772,7 +1772,7 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="7"/>
+      <c r="B26" s="9"/>
       <c r="C26" s="2" t="s">
         <v>64</v>
       </c>
@@ -1787,7 +1787,7 @@
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="8"/>
+      <c r="B27" s="10"/>
       <c r="C27" s="2" t="s">
         <v>66</v>
       </c>
@@ -1802,7 +1802,7 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="8" t="s">
         <v>147</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -1819,7 +1819,7 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="7"/>
+      <c r="B29" s="9"/>
       <c r="C29" s="2" t="s">
         <v>90</v>
       </c>
@@ -1834,7 +1834,7 @@
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="7"/>
+      <c r="B30" s="9"/>
       <c r="C30" s="2" t="s">
         <v>96</v>
       </c>
@@ -1849,7 +1849,7 @@
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="7"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="2" t="s">
         <v>93</v>
       </c>
@@ -1864,7 +1864,7 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="8"/>
+      <c r="B32" s="10"/>
       <c r="C32" s="1" t="s">
         <v>74</v>
       </c>
@@ -2120,12 +2120,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6fd0a1d7-bc79-4732-9936-0d9be1988436" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2382,17 +2381,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6fd0a1d7-bc79-4732-9936-0d9be1988436" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CA16633-6C0E-49A9-A750-E0340EE70140}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5CFB626-26E2-4438-9DDF-3992CF193FD4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="6326863f-2981-4ac8-af87-f0d062708b74"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6fd0a1d7-bc79-4732-9936-0d9be1988436"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2417,18 +2426,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5CFB626-26E2-4438-9DDF-3992CF193FD4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CA16633-6C0E-49A9-A750-E0340EE70140}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="6326863f-2981-4ac8-af87-f0d062708b74"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6fd0a1d7-bc79-4732-9936-0d9be1988436"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>